--- a/Projectdata.xlsx
+++ b/Projectdata.xlsx
@@ -615,11 +615,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
@@ -726,7 +722,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>

--- a/Projectdata.xlsx
+++ b/Projectdata.xlsx
@@ -615,7 +615,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
@@ -722,11 +726,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
